--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>976682.5108025819</v>
+        <v>937078.0037227764</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542240.186367739</v>
+        <v>4171427.157673263</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8964839.202383019</v>
+        <v>10068847.63173135</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>32.55518202532707</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>104.1383913127195</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>112.2410210545007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,7 +755,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>35.92273591503209</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>85.92755197940728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>189.1966334026335</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.2818458970816</v>
+        <v>128.7882896403994</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>17.14766403968944</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398514</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>132.607322731966</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.62520054253652</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813371</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>190.2606141514353</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1062,19 +1062,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6359113765081</v>
+        <v>22.86517835909996</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.699885070052</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.31229205284678</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>42.68052496925149</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>369.2669556658741</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>171.7276502256634</v>
+        <v>90.69811547110066</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>217.6941418399141</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>269.6425323314746</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>114.2656173771021</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>169.2270660549918</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0.760618080448371</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1785,7 +1785,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>96.20906681628145</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>274.2851442767284</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>2.834206670629865</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.38992408868268</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>64.6294890002298</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>234.2009798174991</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>56.91547624318741</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>36.41670903610036</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>176.7697821123584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>128.5906918204586</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>22.7931936102655</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -2371,13 +2371,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>116.6290529729275</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>5.389868198023561</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>313.073494977336</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>218.5174356271568</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>98.803999514024</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2733,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>202.2334741230745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>187.9685985371958</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2809,10 +2809,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>13.02719212039676</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>229.796569204137</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>14.25108662428359</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>18.93482921065052</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>203.1977700471489</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0.2190351612778704</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3322,13 +3322,13 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>74.32262784155878</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>6.380068175847438</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>171.9981214299466</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,13 +3508,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>70.51113862850674</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>168.1158122680958</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>106.5867442799587</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>56.84046908129842</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>147.6950473502981</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3906,16 +3906,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>52.74455946606812</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>75.32192060851528</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396202</v>
@@ -4036,7 +4036,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>66.12438285013633</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>78.86438712404018</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>55.93898446134924</v>
+        <v>15.07437110675761</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>53.98113264792562</v>
+        <v>949.6652257507528</v>
       </c>
       <c r="C2" t="n">
-        <v>53.98113264792562</v>
+        <v>949.6652257507528</v>
       </c>
       <c r="D2" t="n">
-        <v>21.0971104001205</v>
+        <v>683.2875691835748</v>
       </c>
       <c r="E2" t="n">
-        <v>21.0971104001205</v>
+        <v>416.9099126163967</v>
       </c>
       <c r="F2" t="n">
-        <v>21.0971104001205</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4360,22 +4360,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>840.4214638411528</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>586.7364457822816</v>
+        <v>949.6652257507528</v>
       </c>
       <c r="V2" t="n">
-        <v>586.7364457822816</v>
+        <v>949.6652257507528</v>
       </c>
       <c r="W2" t="n">
-        <v>586.7364457822816</v>
+        <v>949.6652257507528</v>
       </c>
       <c r="X2" t="n">
-        <v>586.7364457822816</v>
+        <v>949.6652257507528</v>
       </c>
       <c r="Y2" t="n">
-        <v>320.3587892151036</v>
+        <v>949.6652257507528</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>886.6401829859567</v>
+        <v>832.0187073593814</v>
       </c>
       <c r="C3" t="n">
-        <v>712.1871537048297</v>
+        <v>657.5656780782545</v>
       </c>
       <c r="D3" t="n">
-        <v>563.2527440435784</v>
+        <v>508.6312684170032</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>349.3938134115477</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>202.8592554384327</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>65.46256898749988</v>
       </c>
       <c r="H3" t="n">
         <v>65.46256898749988</v>
@@ -4409,52 +4409,52 @@
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>117.4455628004804</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699346</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302311</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M3" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1000.234044379449</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1000.234044379449</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>1000.234044379449</v>
       </c>
       <c r="V3" t="n">
-        <v>1054.855520006025</v>
+        <v>1000.234044379449</v>
       </c>
       <c r="W3" t="n">
-        <v>1054.855520006025</v>
+        <v>1000.234044379449</v>
       </c>
       <c r="X3" t="n">
-        <v>1054.855520006025</v>
+        <v>1000.234044379449</v>
       </c>
       <c r="Y3" t="n">
-        <v>1054.855520006025</v>
+        <v>1000.234044379449</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434482</v>
+        <v>426.9454397902695</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434482</v>
+        <v>258.0092568623626</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434482</v>
+        <v>107.8926174500268</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.182233022705</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>719.2759572512191</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>493.8069210092334</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="U4" t="n">
-        <v>227.4292644420554</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="V4" t="n">
-        <v>36.32155393434482</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="W4" t="n">
-        <v>36.32155393434482</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="X4" t="n">
-        <v>36.32155393434482</v>
+        <v>829.3864837640393</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.32155393434482</v>
+        <v>608.5939046205092</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1165.074502897832</v>
+        <v>933.2062212426642</v>
       </c>
       <c r="C5" t="n">
-        <v>1165.074502897832</v>
+        <v>933.2062212426642</v>
       </c>
       <c r="D5" t="n">
-        <v>1165.074502897832</v>
+        <v>574.9405226359138</v>
       </c>
       <c r="E5" t="n">
-        <v>779.2862502995874</v>
+        <v>574.9405226359138</v>
       </c>
       <c r="F5" t="n">
-        <v>779.2862502995874</v>
+        <v>163.9546178463062</v>
       </c>
       <c r="G5" t="n">
-        <v>362.8399413126364</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="H5" t="n">
-        <v>51.18630915872035</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135728</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J5" t="n">
-        <v>108.4604468780276</v>
+        <v>108.4604468780274</v>
       </c>
       <c r="K5" t="n">
         <v>270.9975490818687</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373975</v>
+        <v>509.5409587373978</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176466</v>
+        <v>806.6359018176474</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058968</v>
+        <v>1113.151960058969</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836695</v>
+        <v>1389.251120836696</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921686</v>
+        <v>1590.394365921688</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567864</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567864</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="S5" t="n">
-        <v>1551.674342961953</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="T5" t="n">
-        <v>1551.674342961953</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="U5" t="n">
-        <v>1551.674342961953</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="V5" t="n">
-        <v>1551.674342961953</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="W5" t="n">
-        <v>1551.674342961953</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="X5" t="n">
-        <v>1551.674342961953</v>
+        <v>1319.806061306786</v>
       </c>
       <c r="Y5" t="n">
-        <v>1551.674342961953</v>
+        <v>1319.806061306786</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>891.3059566021898</v>
+        <v>663.0248883123061</v>
       </c>
       <c r="C6" t="n">
-        <v>757.3591659638403</v>
+        <v>488.5718590311791</v>
       </c>
       <c r="D6" t="n">
-        <v>608.424756302589</v>
+        <v>339.6374493699278</v>
       </c>
       <c r="E6" t="n">
-        <v>449.1873012971336</v>
+        <v>180.3999943644723</v>
       </c>
       <c r="F6" t="n">
-        <v>302.6527433240185</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5545638768828</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="H6" t="n">
-        <v>67.95335120765395</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135728</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J6" t="n">
-        <v>59.47586665324427</v>
+        <v>124.0742315427335</v>
       </c>
       <c r="K6" t="n">
-        <v>181.4029958650494</v>
+        <v>246.0013607545388</v>
       </c>
       <c r="L6" t="n">
-        <v>391.6716089877842</v>
+        <v>456.2699738772737</v>
       </c>
       <c r="M6" t="n">
-        <v>656.4020309445251</v>
+        <v>721.0003958340149</v>
       </c>
       <c r="N6" t="n">
-        <v>942.5477243562527</v>
+        <v>1007.146089245743</v>
       </c>
       <c r="O6" t="n">
-        <v>1182.09533553045</v>
+        <v>1246.69370041994</v>
       </c>
       <c r="P6" t="n">
-        <v>1601.180110873496</v>
+        <v>1419.618711034409</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.078019232577</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567864</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="S6" t="n">
-        <v>1550.180157843109</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="T6" t="n">
-        <v>1354.574272178448</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="U6" t="n">
-        <v>1126.458064833932</v>
+        <v>1693.271819567866</v>
       </c>
       <c r="V6" t="n">
-        <v>891.3059566021898</v>
+        <v>1501.089381031062</v>
       </c>
       <c r="W6" t="n">
-        <v>891.3059566021898</v>
+        <v>1246.852024302861</v>
       </c>
       <c r="X6" t="n">
-        <v>891.3059566021898</v>
+        <v>1039.000524097328</v>
       </c>
       <c r="Y6" t="n">
-        <v>891.3059566021898</v>
+        <v>831.2402253323742</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1083.595221745717</v>
+        <v>376.0143984882666</v>
       </c>
       <c r="C7" t="n">
-        <v>914.6590388178096</v>
+        <v>207.0782155603597</v>
       </c>
       <c r="D7" t="n">
-        <v>764.5423994054738</v>
+        <v>56.96157614802394</v>
       </c>
       <c r="E7" t="n">
-        <v>616.6293058230807</v>
+        <v>56.96157614802394</v>
       </c>
       <c r="F7" t="n">
-        <v>469.7393583251704</v>
+        <v>56.96157614802394</v>
       </c>
       <c r="G7" t="n">
-        <v>301.4202559246571</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="H7" t="n">
-        <v>149.7239061590865</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135728</v>
+        <v>33.86543639135731</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652187</v>
+        <v>36.28512133652195</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128596</v>
+        <v>170.0982437128598</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119584</v>
+        <v>396.8594047119587</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191534</v>
+        <v>646.3363778191538</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361649</v>
+        <v>895.3159625361653</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.27261202138</v>
+        <v>1109.272612021381</v>
       </c>
       <c r="P7" t="n">
         <v>1268.828805580466</v>
@@ -4764,13 +4764,13 @@
         <v>1295.862163397014</v>
       </c>
       <c r="W7" t="n">
-        <v>1295.862163397014</v>
+        <v>1006.444993360054</v>
       </c>
       <c r="X7" t="n">
-        <v>1295.862163397014</v>
+        <v>778.4554424620364</v>
       </c>
       <c r="Y7" t="n">
-        <v>1265.243686575956</v>
+        <v>557.6628633185063</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854573</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="C8" t="n">
-        <v>728.3028554854573</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="D8" t="n">
-        <v>728.3028554854573</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="E8" t="n">
-        <v>728.3028554854573</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>728.3028554854573</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
@@ -4807,7 +4807,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872915</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.042027525391</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>940.7932119894607</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>771.8570290615538</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>940.7932119894607</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>940.7932119894607</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>940.7932119894607</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>940.7932119894607</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>940.7932119894607</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2196.097994299123</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1908.990616856006</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1550.724918249256</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1164.936665651011</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>753.9507608614038</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>338.8783107064002</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W11" t="n">
-        <v>2972.837166339057</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X11" t="n">
-        <v>2972.837166339057</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y11" t="n">
-        <v>2582.697834363245</v>
+        <v>2277.953133796418</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.464090846021</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U13" t="n">
-        <v>1837.464090846021</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V13" t="n">
-        <v>1837.464090846021</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1137.43386558517</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="C14" t="n">
-        <v>1137.43386558517</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D14" t="n">
-        <v>779.1681669784198</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E14" t="n">
-        <v>779.1681669784198</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>3008.569104429127</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2677.506217085556</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2324.737561815441</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>1951.271803554361</v>
       </c>
       <c r="Y14" t="n">
-        <v>1308.370295943748</v>
+        <v>1561.13247157855</v>
       </c>
     </row>
     <row r="15">
@@ -5333,64 +5333,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>678.4618728343356</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>528.3452334219999</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.661172912844</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.661172912844</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1127.244002875883</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>899.2544519778658</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>678.4618728343356</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1878.169188758595</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C17" t="n">
-        <v>1509.206671818183</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1509.206671818183</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
         <v>1232.150970528558</v>
@@ -5515,25 +5515,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5542,25 +5542,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.542934265601</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.774278995486</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="X17" t="n">
-        <v>2268.308520734407</v>
+        <v>2752.944093773487</v>
       </c>
       <c r="Y17" t="n">
-        <v>1878.169188758595</v>
+        <v>2362.804761797675</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1091.613680441807</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="C19" t="n">
-        <v>922.6774975139006</v>
+        <v>572.8146564160734</v>
       </c>
       <c r="D19" t="n">
-        <v>772.5608581015648</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E19" t="n">
-        <v>624.6477645191717</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W19" t="n">
-        <v>1383.507193008249</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X19" t="n">
-        <v>1383.507193008249</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.714613864719</v>
+        <v>741.7508393439803</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2212.771568013855</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
         <v>3018.302393296687</v>
@@ -5779,25 +5779,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2972.837166339057</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="X20" t="n">
-        <v>2599.371408077977</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y20" t="n">
-        <v>2599.371408077977</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
         <v>176.021302392778</v>
@@ -5831,13 +5831,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1091.613680441807</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C22" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D22" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1890.509993506573</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1698.8241093334</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1477.057493902926</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088493</v>
+        <v>1187.954627028569</v>
       </c>
       <c r="V22" t="n">
-        <v>1672.610059882606</v>
+        <v>933.2701388226822</v>
       </c>
       <c r="W22" t="n">
-        <v>1672.610059882606</v>
+        <v>643.8529687857215</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.054724415577</v>
+        <v>415.8634178877041</v>
       </c>
       <c r="Y22" t="n">
-        <v>1273.262145272047</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796247</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C23" t="n">
-        <v>791.8808681821918</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="D23" t="n">
-        <v>791.8808681821918</v>
+        <v>1343.379050624727</v>
       </c>
       <c r="E23" t="n">
-        <v>406.0926155839475</v>
+        <v>957.5907980264828</v>
       </c>
       <c r="F23" t="n">
-        <v>406.0926155839475</v>
+        <v>546.6048932368753</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>131.5324430818718</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450752</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919558</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943746</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6089,7 +6089,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>685.8122911638644</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C25" t="n">
-        <v>516.8761082359575</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D25" t="n">
-        <v>366.7594688236218</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E25" t="n">
-        <v>218.8463752412287</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F25" t="n">
-        <v>71.9564277433183</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>71.9564277433183</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V25" t="n">
-        <v>1424.011591242373</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W25" t="n">
-        <v>1134.594421205412</v>
+        <v>969.7403902419971</v>
       </c>
       <c r="X25" t="n">
-        <v>906.6048703073945</v>
+        <v>741.7508393439798</v>
       </c>
       <c r="Y25" t="n">
-        <v>685.8122911638644</v>
+        <v>520.9582602004497</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1822.632236038042</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C26" t="n">
-        <v>1453.669719097631</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D26" t="n">
-        <v>1095.40402049088</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E26" t="n">
-        <v>1095.40402049088</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q26" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>3325.60582160917</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W26" t="n">
-        <v>2972.837166339056</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X26" t="n">
-        <v>2599.371408077976</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y26" t="n">
-        <v>2209.232076102164</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6323,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C28" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D28" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6414,22 +6414,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658018</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U28" t="n">
-        <v>1705.527932658018</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V28" t="n">
-        <v>1705.527932658018</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W28" t="n">
-        <v>1705.527932658018</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X28" t="n">
-        <v>1477.538381760001</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1273.262145272047</v>
+        <v>1094.090022971288</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2535.034709923658</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W29" t="n">
-        <v>2535.034709923658</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X29" t="n">
-        <v>2535.034709923658</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y29" t="n">
-        <v>2535.034709923658</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
         <v>2564.909189125856</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2392.59927678083</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C31" t="n">
-        <v>2223.663093852923</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D31" t="n">
-        <v>2073.546454440587</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>1925.633360858194</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>1778.743413360284</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>1611.040576735003</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K31" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L31" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N31" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P31" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q31" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>3325.60582160917</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>3325.60582160917</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V31" t="n">
-        <v>3312.447041689577</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W31" t="n">
-        <v>3023.029871652617</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X31" t="n">
-        <v>2795.0403207546</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y31" t="n">
-        <v>2574.24774161107</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.167438673965</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C32" t="n">
-        <v>1976.204921733553</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D32" t="n">
-        <v>1617.939223126803</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E32" t="n">
-        <v>1232.150970528558</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
         <v>255.3912473912092</v>
@@ -6712,10 +6712,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296685</v>
@@ -6724,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>3119.628073993393</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W32" t="n">
-        <v>3119.628073993393</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X32" t="n">
-        <v>2746.162315732313</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.767278738087</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="33">
@@ -6755,70 +6755,70 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G33" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L33" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U33" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.613680441807</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6879,31 +6879,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1927.294548088492</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1927.294548088492</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>1722.044275313594</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>1494.054724415577</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.262145272047</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1976.204921733553</v>
+        <v>1565.4402645816</v>
       </c>
       <c r="C35" t="n">
-        <v>1976.204921733553</v>
+        <v>1565.4402645816</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1207.17456597485</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>821.3863133766054</v>
       </c>
       <c r="F35" t="n">
         <v>821.1650657389509</v>
@@ -6934,16 +6934,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001388</v>
@@ -6952,37 +6952,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W35" t="n">
-        <v>2349.670679994633</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X35" t="n">
-        <v>1976.204921733553</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y35" t="n">
-        <v>1976.204921733553</v>
+        <v>1952.040104645722</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
         <v>618.1564155387305</v>
@@ -7004,46 +7004,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
         <v>2242.828302297192</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>608.7574741064773</v>
+        <v>241.8928126690271</v>
       </c>
       <c r="C37" t="n">
-        <v>608.7574741064773</v>
+        <v>72.9566297411202</v>
       </c>
       <c r="D37" t="n">
-        <v>458.6408346941415</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E37" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J37" t="n">
         <v>111.6347488791189</v>
@@ -7119,28 +7119,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1663.728614654155</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T37" t="n">
-        <v>1441.961999223681</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U37" t="n">
-        <v>1152.859132349325</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>898.1746441434379</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>608.7574741064773</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X37" t="n">
-        <v>608.7574741064773</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y37" t="n">
-        <v>608.7574741064773</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.586939522201</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C38" t="n">
-        <v>1636.624422581789</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D38" t="n">
-        <v>1278.358723975039</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E38" t="n">
-        <v>892.5704713767946</v>
+        <v>552.807938939214</v>
       </c>
       <c r="F38" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7186,40 +7186,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.326111562134</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.186779586323</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7265,16 +7265,16 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>880.2242361621292</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C40" t="n">
-        <v>880.2242361621292</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D40" t="n">
         <v>772.5608581015648</v>
@@ -7329,7 +7329,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.6347488791189</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621292</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W40" t="n">
-        <v>880.2242361621292</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X40" t="n">
-        <v>880.2242361621292</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.2242361621292</v>
+        <v>1104.32596234414</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1477.112184968822</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1108.149668028411</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>749.8839694216604</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>364.0957168234162</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2606.62001227887</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="W41" t="n">
-        <v>2253.851357008756</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>2253.851357008756</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>1863.712025032944</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7496,22 +7496,22 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>924.1535645674199</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C43" t="n">
-        <v>755.2173816395131</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D43" t="n">
-        <v>605.1007422271773</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E43" t="n">
-        <v>457.1876486447842</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F43" t="n">
-        <v>310.2977011468738</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G43" t="n">
-        <v>142.5948645215928</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>1615.697475415546</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U43" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V43" t="n">
-        <v>1326.59460854119</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W43" t="n">
-        <v>1326.59460854119</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X43" t="n">
-        <v>1326.59460854119</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y43" t="n">
-        <v>1105.80202939766</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1232.248790760447</v>
+        <v>1186.041037313967</v>
       </c>
       <c r="C44" t="n">
-        <v>863.2862738200351</v>
+        <v>817.0785203735552</v>
       </c>
       <c r="D44" t="n">
-        <v>863.2862738200351</v>
+        <v>817.0785203735552</v>
       </c>
       <c r="E44" t="n">
-        <v>477.498021221791</v>
+        <v>817.0785203735552</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7669,7 +7669,7 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
         <v>3325.60582160917</v>
@@ -7681,19 +7681,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450753</v>
+        <v>2689.014622885094</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.975386180638</v>
+        <v>2336.24596761498</v>
       </c>
       <c r="X44" t="n">
-        <v>1698.509627919559</v>
+        <v>1962.7802093539</v>
       </c>
       <c r="Y44" t="n">
-        <v>1618.848630824569</v>
+        <v>1572.640877378089</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L45" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7742,13 +7742,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.7622949738575</v>
+        <v>231.8553933260925</v>
       </c>
       <c r="C46" t="n">
-        <v>583.8261120459506</v>
+        <v>231.8553933260925</v>
       </c>
       <c r="D46" t="n">
-        <v>583.8261120459506</v>
+        <v>81.73875391375674</v>
       </c>
       <c r="E46" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F46" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7812,19 +7812,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q46" t="n">
         <v>1927.294548088492</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088492</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.610059882605</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W46" t="n">
-        <v>1383.192889845645</v>
+        <v>680.6375233676399</v>
       </c>
       <c r="X46" t="n">
-        <v>1155.203338947627</v>
+        <v>452.6479724696226</v>
       </c>
       <c r="Y46" t="n">
-        <v>934.4107598040972</v>
+        <v>231.8553933260925</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>99.37288961069086</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127241</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157959</v>
+        <v>25.82445471157951</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>65.25087362574658</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>248.6462269985633</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>26.48617644860127</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>45.32591189688988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>211.0329012241561</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>322.1278595953559</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22606,16 +22606,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22634,7 +22634,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>45.40405940090028</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22761,19 +22761,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117128</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>62.94100992119454</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.86530142570928</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>40.10117625634973</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22925,13 +22925,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887347</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>188.272361299248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23023,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>42.28074710707983</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23190,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>114.4995038955372</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>147.5787499310935</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>24.96523205584583</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>172.2573809594889</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>213.5067756084888</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.2345538784536</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>190.0027713893314</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>107.6452257955333</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>366.8968940078392</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>109.4420560932546</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>83.98598401798256</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23971,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>131.0719119535084</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>292.3254924742256</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>52.51544363394697</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>48.93987327667872</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>236.6821999505489</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>271.8145707770549</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24259,13 +24259,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>63.20292720900983</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>139.3651467162972</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>93.80255076437544</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>167.7205030288968</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>81.0279806679133</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>16.35117922902029</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>194.7652431262848</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>159.6364462020382</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.14213605696645</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983812</v>
@@ -24888,16 +24888,16 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>239.1104512034312</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>97.9556892659979</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>371.98685203177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>160.8971509712868</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>83.32522828944209</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.6570105804336</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>274.9183408758543</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>142.2354048423649</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>17.7709039014953</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>336.3649071132047</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>181.1251564493172</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>42.02872873825365</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.7441842707964</v>
       </c>
     </row>
     <row r="41">
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>180.0572111198368</v>
+        <v>159.6364462020382</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>93.68940318050105</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>69.4330943058055</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>261.6278756199986</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>307.3735515320134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>90.49497818521994</v>
+        <v>131.3595915398116</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983812</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>502940.2895354352</v>
+        <v>998670.6184995058</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>609087.8282714615</v>
+        <v>1000429.542429938</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>752393.9639131317</v>
+        <v>1003312.174563931</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>827542.1970053947</v>
+        <v>827542.1970053948</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>827542.1970053948</v>
+        <v>827542.1970053947</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>827542.1970053946</v>
+        <v>827542.1970053947</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>827542.1970053948</v>
+        <v>827542.1970053947</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>827542.1970053948</v>
+        <v>827542.1970053947</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>827542.1970053947</v>
+        <v>827542.1970053946</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224363.2393168237</v>
+        <v>451572.9734253556</v>
       </c>
       <c r="C2" t="n">
-        <v>272208.0211027207</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="D2" t="n">
-        <v>336568.7935437392</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="E2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680128</v>
       </c>
       <c r="F2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="G2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680128</v>
       </c>
       <c r="H2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="I2" t="n">
-        <v>375096.8088680125</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="J2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="K2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="L2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="M2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="N2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="O2" t="n">
+        <v>375096.8088680126</v>
+      </c>
+      <c r="P2" t="n">
         <v>375096.8088680127</v>
-      </c>
-      <c r="P2" t="n">
-        <v>375096.8088680126</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739493</v>
+        <v>176672.6241739496</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819082</v>
+        <v>223886.3093819077</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171906</v>
+        <v>182072.9798171907</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911411</v>
+        <v>68999.15441911404</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640786</v>
+        <v>41076.98154640796</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.2912194684</v>
+        <v>54988.29121946839</v>
       </c>
       <c r="M3" t="n">
         <v>47552.26579341488</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13649.17455297509</v>
+        <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>15532.0481385487</v>
+        <v>201669.5195869427</v>
       </c>
       <c r="D4" t="n">
-        <v>18583.86599059036</v>
+        <v>137930.4104072219</v>
       </c>
       <c r="E4" t="n">
         <v>9770.403102091475</v>
@@ -26438,28 +26438,28 @@
         <v>9770.403102091475</v>
       </c>
       <c r="I4" t="n">
-        <v>9770.40310209149</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="J4" t="n">
         <v>9770.403102091475</v>
       </c>
       <c r="K4" t="n">
+        <v>9770.403102091475</v>
+      </c>
+      <c r="L4" t="n">
+        <v>9770.403102091475</v>
+      </c>
+      <c r="M4" t="n">
         <v>9770.40310209149</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>9770.40310209149</v>
       </c>
-      <c r="M4" t="n">
-        <v>9770.403102091475</v>
-      </c>
-      <c r="N4" t="n">
-        <v>9770.403102091475</v>
-      </c>
       <c r="O4" t="n">
-        <v>9770.403102091475</v>
+        <v>9770.40310209149</v>
       </c>
       <c r="P4" t="n">
-        <v>9770.403102091475</v>
+        <v>9770.403102091497</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923109</v>
+        <v>75746.87167923113</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26490,28 +26490,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="J5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="K5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="L5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="M5" t="n">
         <v>74306.34056139327</v>
       </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>74306.34056139327</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74306.34056139327</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-532421.7190316108</v>
+        <v>-541000.7767008082</v>
       </c>
       <c r="C6" t="n">
-        <v>4256.477110991647</v>
+        <v>-2516.042014767227</v>
       </c>
       <c r="D6" t="n">
-        <v>1160.845731396024</v>
+        <v>-3181.518803618528</v>
       </c>
       <c r="E6" t="n">
-        <v>108947.0853873373</v>
+        <v>105470.8960892763</v>
       </c>
       <c r="F6" t="n">
-        <v>291020.065204528</v>
+        <v>287543.8759064669</v>
       </c>
       <c r="G6" t="n">
-        <v>291020.065204528</v>
+        <v>287543.875906467</v>
       </c>
       <c r="H6" t="n">
-        <v>291020.0652045279</v>
+        <v>287543.8759064669</v>
       </c>
       <c r="I6" t="n">
-        <v>291020.065204528</v>
+        <v>287543.8759064669</v>
       </c>
       <c r="J6" t="n">
-        <v>222020.9107854139</v>
+        <v>218544.7214873528</v>
       </c>
       <c r="K6" t="n">
-        <v>249943.0836581201</v>
+        <v>246466.8943600589</v>
       </c>
       <c r="L6" t="n">
-        <v>236031.7739850595</v>
+        <v>232555.5846869984</v>
       </c>
       <c r="M6" t="n">
-        <v>243467.7994111131</v>
+        <v>239991.6101130519</v>
       </c>
       <c r="N6" t="n">
-        <v>291020.065204528</v>
+        <v>287543.8759064669</v>
       </c>
       <c r="O6" t="n">
-        <v>291020.065204528</v>
+        <v>287543.8759064667</v>
       </c>
       <c r="P6" t="n">
-        <v>291020.0652045279</v>
+        <v>287543.8759064669</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908055</v>
+        <v>751.4467899908059</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>423.317954891966</v>
+        <v>423.3179548919665</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
@@ -26810,28 +26810,28 @@
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022924</v>
       </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>831.4014554022924</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26962,10 +26962,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213273</v>
+        <v>137.3917762213275</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267337</v>
+        <v>182.6181021267333</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757591</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904598</v>
+        <v>159.6040748904602</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080729</v>
+        <v>217.2668772080724</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.713880001506</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904598</v>
+        <v>159.6040748904602</v>
       </c>
       <c r="L4" t="n">
-        <v>217.266877208073</v>
+        <v>217.2668772080723</v>
       </c>
       <c r="M4" t="n">
         <v>190.8166233022539</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904598</v>
+        <v>159.6040748904602</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080729</v>
+        <v>217.2668772080724</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>90.9691616191767</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>118.2164900707555</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>147.009776565563</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>111.2271994971667</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>60.50641066716189</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>283.4935562566822</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539868</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813369</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>42.53997299798993</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>143.7707330174082</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>339.2498451030103</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>195.5290386500999</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053487</v>
+        <v>3.020891618053489</v>
       </c>
       <c r="H5" t="n">
-        <v>30.93770628339028</v>
+        <v>30.9377062833903</v>
       </c>
       <c r="I5" t="n">
         <v>116.4629241050072</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677674</v>
+        <v>256.3943999677675</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599716</v>
+        <v>384.2687421599718</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159761</v>
+        <v>476.7193540159763</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285348</v>
+        <v>530.4421353285351</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383294</v>
+        <v>539.0252436383296</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113099</v>
+        <v>508.9862526113101</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906143</v>
+        <v>434.4079907906146</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190737</v>
+        <v>326.2223097190739</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025525</v>
+        <v>189.7610831025526</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639391</v>
+        <v>68.83856774639395</v>
       </c>
       <c r="T5" t="n">
         <v>13.22395305802915</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2416713294442789</v>
+        <v>0.241671329444279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546261</v>
+        <v>1.616319510546262</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395994</v>
+        <v>15.61024369395995</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328137</v>
+        <v>55.64959718328139</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433202</v>
+        <v>152.7067481433203</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499197</v>
+        <v>261.0001553499199</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876871</v>
+        <v>350.9469182876873</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449889</v>
+        <v>409.5385005449892</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345734</v>
+        <v>420.3777660345736</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587852</v>
+        <v>384.5635284587854</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077329</v>
+        <v>308.6461353077331</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970982</v>
+        <v>206.3217676970983</v>
       </c>
       <c r="R6" t="n">
-        <v>100.353592067074</v>
+        <v>100.3535920670741</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633075</v>
+        <v>30.02242599633076</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807076</v>
+        <v>6.514901886807078</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043593</v>
+        <v>0.1063368099043594</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>12.04778623952473</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720631</v>
+        <v>40.75058985720634</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390974</v>
+        <v>95.80330632390978</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029917</v>
+        <v>157.4342619029918</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165514</v>
+        <v>201.4616525165515</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706796</v>
+        <v>212.4130655706797</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379547</v>
+        <v>207.3623576379548</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488041</v>
+        <v>191.5326998488042</v>
       </c>
       <c r="P7" t="n">
-        <v>163.889313017011</v>
+        <v>163.8893130170111</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886116</v>
+        <v>113.4684652886117</v>
       </c>
       <c r="R7" t="n">
-        <v>60.9287839884348</v>
+        <v>60.92878398843483</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544875</v>
+        <v>23.61513928544876</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879975</v>
+        <v>5.789835922879978</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548915</v>
+        <v>0.07391279901548918</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33040,13 +33040,13 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33985,7 +33985,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34216,7 +34216,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233474</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I44" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R44" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,37 +34438,37 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H45" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J45" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34477,7 +34477,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34526,16 +34526,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L46" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N46" t="n">
         <v>300.7247737883114</v>
@@ -34544,19 +34544,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q46" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S46" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780294</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127262</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089029</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108113</v>
+        <v>75.34849544108124</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149911</v>
+        <v>164.1788911149912</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459889</v>
+        <v>240.9529390459891</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012621</v>
+        <v>300.0959021012624</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417384</v>
+        <v>309.6121800417387</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896232</v>
+        <v>278.8880411896234</v>
       </c>
       <c r="P5" t="n">
-        <v>203.1749950353448</v>
+        <v>203.174995035345</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446243</v>
+        <v>103.9166198446244</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>25.86912147665353</v>
+        <v>91.1199951024002</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755607</v>
+        <v>123.1587163755609</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078129</v>
+        <v>212.3925385078131</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229706</v>
+        <v>267.4044666229709</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512401</v>
+        <v>289.0360539512403</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143407</v>
+        <v>241.9672840143409</v>
       </c>
       <c r="P6" t="n">
-        <v>423.317954891966</v>
+        <v>174.6717278934029</v>
       </c>
       <c r="Q6" t="n">
-        <v>92.82617005967793</v>
+        <v>276.4172813469258</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1957579144308994</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207236963</v>
+        <v>2.444126207237005</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771088</v>
+        <v>135.1647700771089</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768675</v>
+        <v>229.0516777768676</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325202</v>
+        <v>251.9969425325203</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171833</v>
+        <v>251.4945300171834</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628437</v>
+        <v>216.1178277628438</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819045</v>
+        <v>161.1678722819046</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.30642203691725</v>
+        <v>27.3064220369173</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35266,13 +35266,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>546.4575832202792</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37864,7 +37864,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013291</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_15_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>937078.0037227764</v>
+        <v>970814.1071254326</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4171427.157673263</v>
+        <v>6542240.186367744</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10068847.63173135</v>
+        <v>8964839.202383017</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>104.1383913127195</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>39.13433125287334</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>35.92273591503209</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>85.92755197940728</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>75.42250313527161</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>128.7882896403994</v>
+        <v>412.2818458970816</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398515</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>124.7311295409942</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813374</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.6607451075071</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>14.8528333757909</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>190.2606141514353</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>22.86517835909996</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.1557535054015</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>90.14373103574674</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>42.68052496925149</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>251.0431769135989</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1186,7 +1186,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>90.69811547110066</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>189.0528888372884</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>269.6425323314746</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>201.6622187863195</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>18.26879610204004</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>234.8621962514505</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.760618080448371</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>96.20906681628145</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>179.6208774259278</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>83.41943806107159</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>2.834206670629865</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>163.6898441249708</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>64.6294890002298</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,10 +2092,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2143,10 +2143,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>56.91547624318741</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>16.73455954182648</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>36.41670903610036</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>7.160548332618027</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2335,10 +2335,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>22.7931936102655</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>116.6290529729275</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2532,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>181.1375494785988</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>91.61745183476941</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>218.5174356271568</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.803999514024</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>173.6268892744755</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>230.6800326295999</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>168.1158122680967</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.6898441249708</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>33.33967451532731</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>229.796569204137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>267.7473854578243</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.93482921065052</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785988</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2190351612778704</v>
+        <v>267.3434267027885</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>6.380068175847438</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>181.1375494785993</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3508,13 +3508,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>70.51113862850674</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3723,13 +3723,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>257.4940548595322</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>56.84046908129842</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>105.9626607935821</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>168.1158122680967</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>52.74455946606812</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>103.1340411809958</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>66.12438285013633</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>243.5875274224974</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>15.07437110675761</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>57.02146927219621</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>949.6652257507528</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C2" t="n">
-        <v>949.6652257507528</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D2" t="n">
-        <v>683.2875691835748</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E2" t="n">
-        <v>416.9099126163967</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917556</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515906</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358416</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4363,19 +4363,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>949.6652257507528</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="V2" t="n">
-        <v>949.6652257507528</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="W2" t="n">
-        <v>949.6652257507528</v>
+        <v>820.2300801016545</v>
       </c>
       <c r="X2" t="n">
-        <v>949.6652257507528</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="Y2" t="n">
-        <v>949.6652257507528</v>
+        <v>287.4747669672985</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>832.0187073593814</v>
+        <v>235.0797672094024</v>
       </c>
       <c r="C3" t="n">
-        <v>657.5656780782545</v>
+        <v>60.62673792827539</v>
       </c>
       <c r="D3" t="n">
-        <v>508.6312684170032</v>
+        <v>60.62673792827539</v>
       </c>
       <c r="E3" t="n">
-        <v>349.3938134115477</v>
+        <v>60.62673792827539</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>60.62673792827539</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>60.62673792827539</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>60.62673792827539</v>
       </c>
       <c r="I3" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004804</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699346</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302313</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267552</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293602</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>909.46721075609</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789494</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1000.234044379449</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>1000.234044379449</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="U3" t="n">
-        <v>1000.234044379449</v>
+        <v>678.083375646678</v>
       </c>
       <c r="V3" t="n">
-        <v>1000.234044379449</v>
+        <v>442.9312674149352</v>
       </c>
       <c r="W3" t="n">
-        <v>1000.234044379449</v>
+        <v>442.9312674149352</v>
       </c>
       <c r="X3" t="n">
-        <v>1000.234044379449</v>
+        <v>235.0797672094024</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000.234044379449</v>
+        <v>235.0797672094024</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>426.9454397902695</v>
+        <v>491.5009376940322</v>
       </c>
       <c r="C4" t="n">
-        <v>258.0092568623626</v>
+        <v>491.5009376940322</v>
       </c>
       <c r="D4" t="n">
-        <v>107.8926174500268</v>
+        <v>491.5009376940322</v>
       </c>
       <c r="E4" t="n">
-        <v>21.0971104001205</v>
+        <v>343.5878441116391</v>
       </c>
       <c r="F4" t="n">
-        <v>21.0971104001205</v>
+        <v>343.5878441116391</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
         <v>21.0971104001205</v>
@@ -4491,19 +4491,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287946</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>739.182233022705</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075546</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4518,22 +4518,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640393</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640393</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>829.3864837640393</v>
+        <v>978.6711734047403</v>
       </c>
       <c r="W4" t="n">
-        <v>829.3864837640393</v>
+        <v>712.2935168375623</v>
       </c>
       <c r="X4" t="n">
-        <v>829.3864837640393</v>
+        <v>712.2935168375623</v>
       </c>
       <c r="Y4" t="n">
-        <v>608.5939046205092</v>
+        <v>491.5009376940322</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>933.2062212426642</v>
+        <v>819.27426231872</v>
       </c>
       <c r="C5" t="n">
-        <v>933.2062212426642</v>
+        <v>450.3117453783083</v>
       </c>
       <c r="D5" t="n">
-        <v>574.9405226359138</v>
+        <v>450.3117453783083</v>
       </c>
       <c r="E5" t="n">
-        <v>574.9405226359138</v>
+        <v>450.3117453783083</v>
       </c>
       <c r="F5" t="n">
-        <v>163.9546178463062</v>
+        <v>450.3117453783083</v>
       </c>
       <c r="G5" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="H5" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="I5" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="J5" t="n">
         <v>108.4604468780274</v>
       </c>
       <c r="K5" t="n">
-        <v>270.9975490818687</v>
+        <v>270.9975490818684</v>
       </c>
       <c r="L5" t="n">
-        <v>509.5409587373978</v>
+        <v>509.5409587373967</v>
       </c>
       <c r="M5" t="n">
-        <v>806.6359018176474</v>
+        <v>806.6359018176458</v>
       </c>
       <c r="N5" t="n">
-        <v>1113.151960058969</v>
+        <v>1113.151960058966</v>
       </c>
       <c r="O5" t="n">
-        <v>1389.251120836696</v>
+        <v>1389.251120836693</v>
       </c>
       <c r="P5" t="n">
-        <v>1590.394365921688</v>
+        <v>1590.394365921684</v>
       </c>
       <c r="Q5" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="R5" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="S5" t="n">
-        <v>1693.271819567866</v>
+        <v>1551.674342961952</v>
       </c>
       <c r="T5" t="n">
-        <v>1693.271819567866</v>
+        <v>1425.683303021553</v>
       </c>
       <c r="U5" t="n">
-        <v>1693.271819567866</v>
+        <v>1172.042917588834</v>
       </c>
       <c r="V5" t="n">
-        <v>1693.271819567866</v>
+        <v>1172.042917588834</v>
       </c>
       <c r="W5" t="n">
-        <v>1693.271819567866</v>
+        <v>819.27426231872</v>
       </c>
       <c r="X5" t="n">
-        <v>1319.806061306786</v>
+        <v>819.27426231872</v>
       </c>
       <c r="Y5" t="n">
-        <v>1319.806061306786</v>
+        <v>819.27426231872</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.0248883123061</v>
+        <v>697.1128031286028</v>
       </c>
       <c r="C6" t="n">
-        <v>488.5718590311791</v>
+        <v>522.6597738474758</v>
       </c>
       <c r="D6" t="n">
-        <v>339.6374493699278</v>
+        <v>373.7253641862245</v>
       </c>
       <c r="E6" t="n">
-        <v>180.3999943644723</v>
+        <v>214.487909180769</v>
       </c>
       <c r="F6" t="n">
-        <v>33.86543639135731</v>
+        <v>67.95335120765395</v>
       </c>
       <c r="G6" t="n">
-        <v>33.86543639135731</v>
+        <v>67.95335120765395</v>
       </c>
       <c r="H6" t="n">
-        <v>33.86543639135731</v>
+        <v>67.95335120765395</v>
       </c>
       <c r="I6" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="J6" t="n">
-        <v>124.0742315427335</v>
+        <v>124.0742315427321</v>
       </c>
       <c r="K6" t="n">
-        <v>246.0013607545388</v>
+        <v>246.0013607545372</v>
       </c>
       <c r="L6" t="n">
-        <v>456.2699738772737</v>
+        <v>456.2699738772718</v>
       </c>
       <c r="M6" t="n">
-        <v>721.0003958340149</v>
+        <v>721.0003958340126</v>
       </c>
       <c r="N6" t="n">
-        <v>1007.146089245743</v>
+        <v>1007.14608924574</v>
       </c>
       <c r="O6" t="n">
-        <v>1246.69370041994</v>
+        <v>1246.693700419937</v>
       </c>
       <c r="P6" t="n">
-        <v>1419.618711034409</v>
+        <v>1419.618711034406</v>
       </c>
       <c r="Q6" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="R6" t="n">
-        <v>1693.271819567866</v>
+        <v>1693.271819567862</v>
       </c>
       <c r="S6" t="n">
-        <v>1693.271819567866</v>
+        <v>1550.180157843108</v>
       </c>
       <c r="T6" t="n">
-        <v>1693.271819567866</v>
+        <v>1535.177295847359</v>
       </c>
       <c r="U6" t="n">
-        <v>1693.271819567866</v>
+        <v>1535.177295847359</v>
       </c>
       <c r="V6" t="n">
-        <v>1501.089381031062</v>
+        <v>1535.177295847359</v>
       </c>
       <c r="W6" t="n">
-        <v>1246.852024302861</v>
+        <v>1280.939939119158</v>
       </c>
       <c r="X6" t="n">
-        <v>1039.000524097328</v>
+        <v>1073.088438913625</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.2402253323742</v>
+        <v>865.3281401486709</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>376.0143984882666</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="C7" t="n">
-        <v>207.0782155603597</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="D7" t="n">
-        <v>56.96157614802394</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="E7" t="n">
-        <v>56.96157614802394</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="F7" t="n">
-        <v>56.96157614802394</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="G7" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="H7" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="I7" t="n">
-        <v>33.86543639135731</v>
+        <v>33.86543639135724</v>
       </c>
       <c r="J7" t="n">
-        <v>36.28512133652195</v>
+        <v>36.28512133652179</v>
       </c>
       <c r="K7" t="n">
-        <v>170.0982437128598</v>
+        <v>170.0982437128595</v>
       </c>
       <c r="L7" t="n">
-        <v>396.8594047119587</v>
+        <v>396.8594047119582</v>
       </c>
       <c r="M7" t="n">
-        <v>646.3363778191538</v>
+        <v>646.3363778191531</v>
       </c>
       <c r="N7" t="n">
-        <v>895.3159625361653</v>
+        <v>895.3159625361644</v>
       </c>
       <c r="O7" t="n">
-        <v>1109.272612021381</v>
+        <v>1109.27261202138</v>
       </c>
       <c r="P7" t="n">
-        <v>1268.828805580466</v>
+        <v>1268.828805580465</v>
       </c>
       <c r="Q7" t="n">
-        <v>1295.862163397014</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="R7" t="n">
-        <v>1295.862163397014</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="S7" t="n">
-        <v>1295.862163397014</v>
+        <v>1295.862163397013</v>
       </c>
       <c r="T7" t="n">
-        <v>1295.862163397014</v>
+        <v>1071.462412381456</v>
       </c>
       <c r="U7" t="n">
-        <v>1295.862163397014</v>
+        <v>1071.462412381456</v>
       </c>
       <c r="V7" t="n">
-        <v>1295.862163397014</v>
+        <v>816.7779241755692</v>
       </c>
       <c r="W7" t="n">
-        <v>1006.444993360054</v>
+        <v>527.3607541386086</v>
       </c>
       <c r="X7" t="n">
-        <v>778.4554424620364</v>
+        <v>436.3064803651271</v>
       </c>
       <c r="Y7" t="n">
-        <v>557.6628633185063</v>
+        <v>215.5139012215969</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1291.481876182945</v>
+        <v>740.1619192519192</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.481876182945</v>
+        <v>371.1994023115075</v>
       </c>
       <c r="D8" t="n">
-        <v>1291.481876182945</v>
+        <v>371.1994023115075</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>371.1994023115075</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>371.1994023115075</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4834,22 +4834,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.481876182945</v>
+        <v>1126.761759316041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1291.481876182945</v>
+        <v>1126.761759316041</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>507.2413987429759</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919906</v>
+        <v>801.9449557744476</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>1165.206974733668</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>519.0385070447395</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.831862022881</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>1158.783151063346</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>967.820637086287</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>739.8310861882696</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>519.0385070447395</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2277.953133796418</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>1908.990616856006</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>1550.724918249256</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>1164.936665651011</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>753.9507608614038</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>338.8783107064002</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>2630.721789066532</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W11" t="n">
-        <v>2277.953133796418</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X11" t="n">
-        <v>2277.953133796418</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y11" t="n">
-        <v>2277.953133796418</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C13" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D13" t="n">
-        <v>66.51211643218343</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E13" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1751.913851851648</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1530.147236421175</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1241.044369546818</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>986.3598813409312</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>696.9427113039706</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>468.9531604059532</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>248.1605812624231</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1561.13247157855</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C14" t="n">
-        <v>1561.13247157855</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D14" t="n">
-        <v>1202.866772971799</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="E14" t="n">
-        <v>817.078520373555</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="F14" t="n">
-        <v>406.0926155839475</v>
+        <v>601.330258491548</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3008.569104429127</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>2677.506217085556</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W14" t="n">
-        <v>2324.737561815441</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X14" t="n">
-        <v>1951.271803554361</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y14" t="n">
-        <v>1561.13247157855</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5345,46 +5345,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>678.4618728343356</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C16" t="n">
-        <v>678.4618728343356</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D16" t="n">
-        <v>528.3452334219999</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E16" t="n">
-        <v>380.4321398396067</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F16" t="n">
-        <v>380.4321398396067</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G16" t="n">
-        <v>212.7293032143257</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5463,25 +5463,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1416.661172912844</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1416.661172912844</v>
+        <v>1234.989836060503</v>
       </c>
       <c r="W16" t="n">
-        <v>1127.244002875883</v>
+        <v>1234.989836060503</v>
       </c>
       <c r="X16" t="n">
-        <v>899.2544519778658</v>
+        <v>1007.000285162486</v>
       </c>
       <c r="Y16" t="n">
-        <v>678.4618728343356</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1976.204921733553</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1316.413029176106</v>
       </c>
       <c r="E17" t="n">
         <v>1232.150970528558</v>
@@ -5512,7 +5512,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
@@ -5524,19 +5524,19 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2755.806928794325</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>2752.944093773487</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y17" t="n">
-        <v>2362.804761797675</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
@@ -5591,13 +5591,13 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
         <v>765.1517452158132</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.7508393439803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C19" t="n">
-        <v>572.8146564160734</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D19" t="n">
-        <v>507.5323442946291</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E19" t="n">
-        <v>359.619250712236</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G19" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,10 +5694,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S19" t="n">
         <v>1735.608663915319</v>
@@ -5706,19 +5706,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1513.842048484845</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V19" t="n">
-        <v>1259.157560278958</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W19" t="n">
-        <v>969.7403902419976</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X19" t="n">
-        <v>741.7508393439803</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.7508393439803</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1590.514489367197</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C20" t="n">
-        <v>1221.551972426786</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2862738200351</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E20" t="n">
-        <v>477.498021221791</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V20" t="n">
-        <v>2424.744041450754</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W20" t="n">
-        <v>2367.25366140713</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X20" t="n">
-        <v>2367.25366140713</v>
+        <v>2371.340206772526</v>
       </c>
       <c r="Y20" t="n">
-        <v>1977.114329431319</v>
+        <v>1981.200874796715</v>
       </c>
     </row>
     <row r="21">
@@ -5825,19 +5825,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1890.509993506573</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1698.8241093334</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T22" t="n">
-        <v>1477.057493902926</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U22" t="n">
-        <v>1187.954627028569</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V22" t="n">
-        <v>933.2701388226822</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>643.8529687857215</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>415.8634178877041</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>415.8634178877041</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1712.341567565139</v>
+        <v>1285.591601078693</v>
       </c>
       <c r="C23" t="n">
-        <v>1343.379050624727</v>
+        <v>1285.591601078693</v>
       </c>
       <c r="D23" t="n">
-        <v>1343.379050624727</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>957.5907980264828</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>546.6048932368753</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>131.5324430818718</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810571</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136266</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W23" t="n">
-        <v>2862.546497866152</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.080739605072</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y23" t="n">
-        <v>2098.941407629261</v>
+        <v>1672.191441142815</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064551</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>403.1511359853714</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279953</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L25" t="n">
         <v>632.1817302764914</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U25" t="n">
-        <v>1513.842048484845</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V25" t="n">
-        <v>1259.157560278958</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W25" t="n">
-        <v>969.7403902419971</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X25" t="n">
-        <v>741.7508393439798</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y25" t="n">
-        <v>520.9582602004497</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2047.583838282732</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C26" t="n">
-        <v>1678.62132134232</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>985.1133520179758</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218342</v>
@@ -6253,25 +6253,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.5429342656</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W26" t="n">
-        <v>2641.774278995485</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.308520734406</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y26" t="n">
-        <v>2047.583838282732</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G27" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
@@ -6326,31 +6326,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R27" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S27" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T27" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V27" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W27" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>994.2880032601528</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>825.3518203322459</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>675.2351809199101</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>527.322087337517</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
         <v>66.51211643218342</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088492</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088492</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U28" t="n">
-        <v>1638.191681214136</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>1383.507193008249</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>1094.090022971288</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>1094.090022971288</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>1094.090022971288</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>1559.116588708439</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001388</v>
@@ -6478,7 +6478,7 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296685</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V29" t="n">
-        <v>3155.791869823214</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W29" t="n">
-        <v>3155.791869823214</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.326111562134</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y29" t="n">
-        <v>2392.186779586323</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218342</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.6347488791189</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610488</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046014</v>
+        <v>1322.998900894119</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676408</v>
+        <v>1033.581730857159</v>
       </c>
       <c r="X31" t="n">
-        <v>452.6479724696235</v>
+        <v>805.5921799591412</v>
       </c>
       <c r="Y31" t="n">
-        <v>231.8553933260934</v>
+        <v>584.799600815611</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.514489367197</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C32" t="n">
-        <v>1221.551972426786</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D32" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q32" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V32" t="n">
-        <v>3093.488074938325</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W32" t="n">
-        <v>2740.71941966821</v>
+        <v>2470.560553036583</v>
       </c>
       <c r="X32" t="n">
-        <v>2367.25366140713</v>
+        <v>2097.094794775503</v>
       </c>
       <c r="Y32" t="n">
-        <v>1977.114329431319</v>
+        <v>1706.955462799692</v>
       </c>
     </row>
     <row r="33">
@@ -6755,70 +6755,70 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J33" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
         <v>1317.519490266131</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C34" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D34" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E34" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F34" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G34" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L34" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N34" t="n">
         <v>1317.747152581905</v>
@@ -6879,31 +6879,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S34" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U34" t="n">
-        <v>1224.739181610489</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V34" t="n">
-        <v>970.0546934046018</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W34" t="n">
-        <v>680.6375233676413</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X34" t="n">
-        <v>452.6479724696239</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y34" t="n">
-        <v>231.8553933260938</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1565.4402645816</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C35" t="n">
-        <v>1565.4402645816</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D35" t="n">
-        <v>1207.17456597485</v>
+        <v>764.341133147311</v>
       </c>
       <c r="E35" t="n">
-        <v>821.3863133766054</v>
+        <v>378.5528805490667</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>2678.274518176916</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W35" t="n">
-        <v>2325.505862906802</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X35" t="n">
-        <v>1952.040104645722</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y35" t="n">
-        <v>1952.040104645722</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="36">
@@ -6992,37 +6992,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7034,10 +7034,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7049,7 +7049,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7058,10 +7058,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="37">
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>241.8928126690271</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C37" t="n">
-        <v>72.9566297411202</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7116,31 +7116,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658018</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W37" t="n">
-        <v>872.3234075408143</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X37" t="n">
-        <v>644.3338566427969</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y37" t="n">
-        <v>423.5412774992668</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796256</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C38" t="n">
-        <v>552.807938939214</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D38" t="n">
-        <v>552.807938939214</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>552.807938939214</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
@@ -7177,16 +7177,16 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>922.6774975139006</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C40" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D40" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E40" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658018</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783662</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V40" t="n">
-        <v>1161.740577577775</v>
+        <v>1293.676735765777</v>
       </c>
       <c r="W40" t="n">
-        <v>1161.740577577775</v>
+        <v>1033.581730857159</v>
       </c>
       <c r="X40" t="n">
-        <v>1161.740577577775</v>
+        <v>805.5921799591413</v>
       </c>
       <c r="Y40" t="n">
-        <v>1104.32596234414</v>
+        <v>584.7996008156111</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1381.278680221566</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V41" t="n">
-        <v>3155.791869823214</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.791869823214</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="42">
@@ -7487,16 +7487,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7505,13 +7505,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P42" t="n">
         <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>752.7622949738575</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C43" t="n">
-        <v>583.8261120459506</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D43" t="n">
-        <v>433.7094726336148</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E43" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F43" t="n">
-        <v>380.4321398396066</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G43" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7575,19 +7575,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760404</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O43" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P43" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q43" t="n">
         <v>1927.294548088492</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915318</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484844</v>
       </c>
       <c r="U43" t="n">
-        <v>1927.294548088492</v>
+        <v>1224.739181610487</v>
       </c>
       <c r="V43" t="n">
-        <v>1672.610059882605</v>
+        <v>970.0546934046005</v>
       </c>
       <c r="W43" t="n">
-        <v>1383.192889845645</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X43" t="n">
-        <v>1155.203338947627</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y43" t="n">
-        <v>934.4107598040972</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1186.041037313967</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>817.0785203735552</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>817.0785203735552</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>817.0785203735552</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>406.0926155839476</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839476</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218339</v>
@@ -7651,19 +7651,19 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296685</v>
@@ -7675,25 +7675,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2689.014622885094</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W44" t="n">
-        <v>2336.24596761498</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X44" t="n">
-        <v>1962.7802093539</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y44" t="n">
-        <v>1572.640877378089</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="45">
@@ -7748,7 +7748,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>231.8553933260925</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="C46" t="n">
-        <v>231.8553933260925</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="D46" t="n">
-        <v>81.73875391375674</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F46" t="n">
         <v>66.51211643218339</v>
@@ -7851,7 +7851,7 @@
         <v>452.6479724696226</v>
       </c>
       <c r="Y46" t="n">
-        <v>231.8553933260925</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069086</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.82445471157951</v>
+        <v>25.82445471157968</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>65.25087362574658</v>
+        <v>65.2508736257454</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.32591189688988</v>
+        <v>45.32591189688996</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>211.0329012241562</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>119.0199616619744</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>18.86898237295591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.787472748632247</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,13 +22673,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22725,10 +22725,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>176.7151401885564</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539878</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>85.14076696510801</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22877,10 +22877,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.62520054253653</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22916,13 +22916,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>178.7969934322236</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22944,25 +22944,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.699885070052</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,16 +22989,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887347</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23007,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>135.5659243532904</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23026,19 +23026,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>160.5045258593551</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -23187,19 +23187,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>97.47010949930265</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>24.96523205584583</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>168.0688818921495</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,10 +23424,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>128.1651665445291</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23466,7 +23466,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>176.059529402003</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.2345538784536</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>190.0027713893314</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>72.5167658979002</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>298.5109320111902</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>366.8968940078392</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696645</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>83.98598401798256</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23980,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>292.3254924742256</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>352.9965411366426</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>52.51544363394697</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>347.5224932880649</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>271.8145707770549</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>63.20292720900983</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>105.074288727014</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>290.3129182374923</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396202</v>
@@ -24502,7 +24502,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>167.7205030288968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.0279806679133</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983812</v>
@@ -24651,10 +24651,10 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696639</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>152.0538090338807</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -24733,19 +24733,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>159.6364462020382</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696645</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>218.7979688085007</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,16 +24970,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>97.9556892659979</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>81.49358325958872</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>160.8971509712868</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25092,10 +25092,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>105.074288727014</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.6570105804336</v>
+        <v>139.5326190389229</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>142.2354048423649</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25396,13 +25396,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>336.3649071132047</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>77.37908764444929</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>29.02894347705876</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.7441842707964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>248.7203808271008</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396202</v>
@@ -25687,10 +25687,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>159.6364462020382</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>93.68940318050105</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983812</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>183.3889571555952</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>261.6278756199986</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>126.1435732559717</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>131.3595915398116</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>161.5631840798986</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998670.6184995058</v>
+        <v>502940.2895354352</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1000429.542429938</v>
+        <v>609087.8282714613</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1003312.174563931</v>
+        <v>752393.9639131316</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>827542.1970053948</v>
+        <v>827542.1970053947</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>827542.1970053948</v>
+        <v>827542.1970053947</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>827542.1970053947</v>
+        <v>827542.1970053946</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>827542.1970053947</v>
+        <v>827542.1970053946</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>827542.1970053947</v>
+        <v>827542.1970053946</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>827542.1970053947</v>
+        <v>827542.1970053946</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>827542.1970053946</v>
+        <v>827542.1970053947</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>827542.1970053947</v>
+        <v>827542.1970053944</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253556</v>
+        <v>224363.2393168236</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253562</v>
+        <v>272208.0211027206</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253558</v>
+        <v>336568.7935437394</v>
       </c>
       <c r="E2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="F2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="G2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="H2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="I2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680124</v>
       </c>
       <c r="J2" t="n">
         <v>375096.8088680126</v>
       </c>
       <c r="K2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="L2" t="n">
         <v>375096.8088680126</v>
       </c>
       <c r="M2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="N2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="O2" t="n">
+        <v>375096.8088680125</v>
+      </c>
+      <c r="P2" t="n">
         <v>375096.8088680126</v>
-      </c>
-      <c r="P2" t="n">
-        <v>375096.8088680127</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>176672.6241739496</v>
+        <v>176672.6241739487</v>
       </c>
       <c r="D3" t="n">
-        <v>223886.3093819077</v>
+        <v>223886.3093819086</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171907</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911414</v>
       </c>
       <c r="K3" t="n">
-        <v>41076.98154640796</v>
+        <v>41076.98154640771</v>
       </c>
       <c r="L3" t="n">
-        <v>54988.29121946839</v>
+        <v>54988.29121946851</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341488</v>
+        <v>47552.26579341494</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249437.9663307044</v>
+        <v>13649.17455297509</v>
       </c>
       <c r="C4" t="n">
-        <v>201669.5195869427</v>
+        <v>15532.04813854869</v>
       </c>
       <c r="D4" t="n">
-        <v>137930.4104072219</v>
+        <v>18583.86599059036</v>
       </c>
       <c r="E4" t="n">
         <v>9770.403102091475</v>
@@ -26435,13 +26435,13 @@
         <v>9770.403102091475</v>
       </c>
       <c r="H4" t="n">
-        <v>9770.403102091475</v>
+        <v>9770.40310209149</v>
       </c>
       <c r="I4" t="n">
         <v>9770.403102091475</v>
       </c>
       <c r="J4" t="n">
-        <v>9770.403102091475</v>
+        <v>9770.403102091494</v>
       </c>
       <c r="K4" t="n">
         <v>9770.403102091475</v>
@@ -26450,16 +26450,16 @@
         <v>9770.403102091475</v>
       </c>
       <c r="M4" t="n">
-        <v>9770.40310209149</v>
+        <v>9770.403102091475</v>
       </c>
       <c r="N4" t="n">
         <v>9770.40310209149</v>
       </c>
       <c r="O4" t="n">
-        <v>9770.40310209149</v>
+        <v>9770.403102091477</v>
       </c>
       <c r="P4" t="n">
-        <v>9770.403102091497</v>
+        <v>9770.403102091475</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>75746.87167923113</v>
+        <v>75746.87167923106</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26487,28 +26487,28 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="L5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="L5" t="n">
-        <v>74306.34056139328</v>
-      </c>
       <c r="M5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139327</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-541000.7767008082</v>
+        <v>-533454.490550286</v>
       </c>
       <c r="C6" t="n">
-        <v>-2516.042014767227</v>
+        <v>3441.181873162026</v>
       </c>
       <c r="D6" t="n">
-        <v>-3181.518803618528</v>
+        <v>638.0994592065679</v>
       </c>
       <c r="E6" t="n">
-        <v>105470.8960892763</v>
+        <v>108599.4664575311</v>
       </c>
       <c r="F6" t="n">
-        <v>287543.8759064669</v>
+        <v>290672.4462747218</v>
       </c>
       <c r="G6" t="n">
-        <v>287543.875906467</v>
+        <v>290672.4462747221</v>
       </c>
       <c r="H6" t="n">
-        <v>287543.8759064669</v>
+        <v>290672.4462747218</v>
       </c>
       <c r="I6" t="n">
-        <v>287543.8759064669</v>
+        <v>290672.4462747216</v>
       </c>
       <c r="J6" t="n">
-        <v>218544.7214873528</v>
+        <v>221673.2918556076</v>
       </c>
       <c r="K6" t="n">
-        <v>246466.8943600589</v>
+        <v>249595.4647283141</v>
       </c>
       <c r="L6" t="n">
-        <v>232555.5846869984</v>
+        <v>235684.1550552532</v>
       </c>
       <c r="M6" t="n">
-        <v>239991.6101130519</v>
+        <v>243120.1804813069</v>
       </c>
       <c r="N6" t="n">
-        <v>287543.8759064669</v>
+        <v>290672.4462747218</v>
       </c>
       <c r="O6" t="n">
-        <v>287543.8759064667</v>
+        <v>290672.4462747217</v>
       </c>
       <c r="P6" t="n">
-        <v>287543.8759064669</v>
+        <v>290672.4462747218</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>751.4467899908059</v>
+        <v>751.4467899908052</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>423.3179548919665</v>
+        <v>423.3179548919655</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="L4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="L4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022924</v>
@@ -26962,10 +26962,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>137.3917762213275</v>
+        <v>137.3917762213268</v>
       </c>
       <c r="D3" t="n">
-        <v>182.6181021267333</v>
+        <v>182.618102126734</v>
       </c>
       <c r="E3" t="n">
         <v>155.7118084757591</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>159.6040748904602</v>
+        <v>159.6040748904593</v>
       </c>
       <c r="D4" t="n">
-        <v>217.2668772080724</v>
+        <v>217.2668772080733</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.713880001506</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904602</v>
+        <v>159.6040748904592</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080723</v>
+        <v>217.2668772080734</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
-        <v>159.6040748904602</v>
+        <v>159.6040748904593</v>
       </c>
       <c r="L4" t="n">
-        <v>217.2668772080724</v>
+        <v>217.2668772080733</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>90.9691616191767</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707555</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>147.009776565563</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27475,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,25 +27508,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>111.2271994971667</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>60.50641066716189</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>283.4935562566822</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>308.5370958323768</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>94.01296546539868</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>140.1815018398514</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.8718965061022</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1039815783922</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7271976526644</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.6252005425365</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>33.74703566813369</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>141.6607451075071</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.6498268080145</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8350452710705</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>42.53997299798993</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27782,19 +27782,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>143.7707330174082</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.1793862679149</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>114.6998850700519</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.3646073887347</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.4014587515235</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.1557535054015</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2451165574754</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>339.2498451030103</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>195.5290386500999</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.020891618053489</v>
+        <v>3.020891618053486</v>
       </c>
       <c r="H5" t="n">
-        <v>30.9377062833903</v>
+        <v>30.93770628339027</v>
       </c>
       <c r="I5" t="n">
-        <v>116.4629241050072</v>
+        <v>116.4629241050071</v>
       </c>
       <c r="J5" t="n">
-        <v>256.3943999677675</v>
+        <v>256.3943999677673</v>
       </c>
       <c r="K5" t="n">
-        <v>384.2687421599718</v>
+        <v>384.2687421599714</v>
       </c>
       <c r="L5" t="n">
-        <v>476.7193540159763</v>
+        <v>476.7193540159759</v>
       </c>
       <c r="M5" t="n">
-        <v>530.4421353285351</v>
+        <v>530.4421353285345</v>
       </c>
       <c r="N5" t="n">
-        <v>539.0252436383296</v>
+        <v>539.025243638329</v>
       </c>
       <c r="O5" t="n">
-        <v>508.9862526113101</v>
+        <v>508.9862526113097</v>
       </c>
       <c r="P5" t="n">
-        <v>434.4079907906146</v>
+        <v>434.4079907906142</v>
       </c>
       <c r="Q5" t="n">
-        <v>326.2223097190739</v>
+        <v>326.2223097190736</v>
       </c>
       <c r="R5" t="n">
-        <v>189.7610831025526</v>
+        <v>189.7610831025524</v>
       </c>
       <c r="S5" t="n">
-        <v>68.83856774639395</v>
+        <v>68.83856774639388</v>
       </c>
       <c r="T5" t="n">
-        <v>13.22395305802915</v>
+        <v>13.22395305802914</v>
       </c>
       <c r="U5" t="n">
-        <v>0.241671329444279</v>
+        <v>0.2416713294442788</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.616319510546262</v>
+        <v>1.61631951054626</v>
       </c>
       <c r="H6" t="n">
-        <v>15.61024369395995</v>
+        <v>15.61024369395994</v>
       </c>
       <c r="I6" t="n">
-        <v>55.64959718328139</v>
+        <v>55.64959718328134</v>
       </c>
       <c r="J6" t="n">
-        <v>152.7067481433203</v>
+        <v>152.7067481433202</v>
       </c>
       <c r="K6" t="n">
-        <v>261.0001553499199</v>
+        <v>261.0001553499196</v>
       </c>
       <c r="L6" t="n">
-        <v>350.9469182876873</v>
+        <v>350.946918287687</v>
       </c>
       <c r="M6" t="n">
-        <v>409.5385005449892</v>
+        <v>409.5385005449888</v>
       </c>
       <c r="N6" t="n">
-        <v>420.3777660345736</v>
+        <v>420.3777660345732</v>
       </c>
       <c r="O6" t="n">
-        <v>384.5635284587854</v>
+        <v>384.563528458785</v>
       </c>
       <c r="P6" t="n">
-        <v>308.6461353077331</v>
+        <v>308.6461353077328</v>
       </c>
       <c r="Q6" t="n">
-        <v>206.3217676970983</v>
+        <v>206.3217676970981</v>
       </c>
       <c r="R6" t="n">
-        <v>100.3535920670741</v>
+        <v>100.353592067074</v>
       </c>
       <c r="S6" t="n">
-        <v>30.02242599633076</v>
+        <v>30.02242599633074</v>
       </c>
       <c r="T6" t="n">
-        <v>6.514901886807078</v>
+        <v>6.514901886807073</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1063368099043594</v>
+        <v>0.1063368099043593</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.355067981950633</v>
+        <v>1.355067981950632</v>
       </c>
       <c r="H7" t="n">
-        <v>12.04778623952473</v>
+        <v>12.04778623952472</v>
       </c>
       <c r="I7" t="n">
-        <v>40.75058985720634</v>
+        <v>40.7505898572063</v>
       </c>
       <c r="J7" t="n">
-        <v>95.80330632390978</v>
+        <v>95.80330632390969</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4342619029918</v>
+        <v>157.4342619029916</v>
       </c>
       <c r="L7" t="n">
-        <v>201.4616525165515</v>
+        <v>201.4616525165513</v>
       </c>
       <c r="M7" t="n">
-        <v>212.4130655706797</v>
+        <v>212.4130655706795</v>
       </c>
       <c r="N7" t="n">
-        <v>207.3623576379548</v>
+        <v>207.3623576379546</v>
       </c>
       <c r="O7" t="n">
-        <v>191.5326998488042</v>
+        <v>191.532699848804</v>
       </c>
       <c r="P7" t="n">
-        <v>163.8893130170111</v>
+        <v>163.8893130170109</v>
       </c>
       <c r="Q7" t="n">
-        <v>113.4684652886117</v>
+        <v>113.4684652886116</v>
       </c>
       <c r="R7" t="n">
-        <v>60.92878398843483</v>
+        <v>60.92878398843477</v>
       </c>
       <c r="S7" t="n">
-        <v>23.61513928544876</v>
+        <v>23.61513928544874</v>
       </c>
       <c r="T7" t="n">
-        <v>5.789835922879978</v>
+        <v>5.789835922879973</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07391279901548918</v>
+        <v>0.07391279901548911</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33265,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.994981974642</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,37 +34201,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34240,7 +34240,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34289,16 +34289,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34307,19 +34307,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.4384048176305</v>
@@ -34795,7 +34795,7 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q3" t="n">
         <v>28.61687799649641</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>75.34849544108124</v>
+        <v>75.34849544108101</v>
       </c>
       <c r="K5" t="n">
-        <v>164.1788911149912</v>
+        <v>164.1788911149908</v>
       </c>
       <c r="L5" t="n">
-        <v>240.9529390459891</v>
+        <v>240.9529390459887</v>
       </c>
       <c r="M5" t="n">
-        <v>300.0959021012624</v>
+        <v>300.0959021012618</v>
       </c>
       <c r="N5" t="n">
-        <v>309.6121800417387</v>
+        <v>309.6121800417381</v>
       </c>
       <c r="O5" t="n">
-        <v>278.8880411896234</v>
+        <v>278.888041189623</v>
       </c>
       <c r="P5" t="n">
-        <v>203.174995035345</v>
+        <v>203.1749950353446</v>
       </c>
       <c r="Q5" t="n">
-        <v>103.9166198446244</v>
+        <v>103.9166198446241</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>91.1199951024002</v>
+        <v>91.11999510239887</v>
       </c>
       <c r="K6" t="n">
-        <v>123.1587163755609</v>
+        <v>123.1587163755606</v>
       </c>
       <c r="L6" t="n">
-        <v>212.3925385078131</v>
+        <v>212.3925385078128</v>
       </c>
       <c r="M6" t="n">
-        <v>267.4044666229709</v>
+        <v>267.4044666229705</v>
       </c>
       <c r="N6" t="n">
-        <v>289.0360539512403</v>
+        <v>289.0360539512399</v>
       </c>
       <c r="O6" t="n">
-        <v>241.9672840143409</v>
+        <v>241.9672840143406</v>
       </c>
       <c r="P6" t="n">
-        <v>174.6717278934029</v>
+        <v>174.6717278934026</v>
       </c>
       <c r="Q6" t="n">
-        <v>276.4172813469258</v>
+        <v>276.4172813469257</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.444126207237005</v>
+        <v>2.44412620723692</v>
       </c>
       <c r="K7" t="n">
-        <v>135.1647700771089</v>
+        <v>135.1647700771088</v>
       </c>
       <c r="L7" t="n">
-        <v>229.0516777768676</v>
+        <v>229.0516777768674</v>
       </c>
       <c r="M7" t="n">
-        <v>251.9969425325203</v>
+        <v>251.9969425325201</v>
       </c>
       <c r="N7" t="n">
-        <v>251.4945300171834</v>
+        <v>251.4945300171832</v>
       </c>
       <c r="O7" t="n">
-        <v>216.1178277628438</v>
+        <v>216.1178277628437</v>
       </c>
       <c r="P7" t="n">
-        <v>161.1678722819046</v>
+        <v>161.1678722819044</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.3064220369173</v>
+        <v>27.3064220369172</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>397.620397467641</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35269,10 +35269,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193724</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
